--- a/assets/sheets/questions.xlsx
+++ b/assets/sheets/questions.xlsx
@@ -1,43 +1,540 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="19200" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Addtional info</t>
+  </si>
+  <si>
+    <t>Apply the appropriate TestNG annotation for the cases and generate the TestNG reports. (i.e., @BeforeTest, @AfterTest, @BeforeMethod, @AfterMethod, etc.,)  Use: https://www.moneycontrol.com   Test Steps:  1. Open your web browser and go to the Money control website.  2. On the top of the homepage, locate and click on the search box.  3. In the search-box , enter the data as &amp;quot;Reliance Industries.&amp;quot;   4. Click on the primary suggestion in the displayed list, which will lead you to the chosen option . 5. Scroll down further and verify that the page contains the specific term &amp;quot;Reliance Industries Ltd.&amp;quot; 6. At the top navigation bar of the same page, click on the &amp;quot;Mutual Funds&amp;quot; dropdown and select the &amp;quot;SIP Return&amp;quot; option. 7. This action will redirect you to the SIP Calculator page. Here, choose the mutual fund named &amp;quot;Axis Mutual Fund&amp;quot; within the SIP calculator.  8. Choose for the mutual fund scheme as &amp;quot;Axis Arbitrage Fund - Regular Plan (D).&amp;quot;   9. Enter the investment amount as &amp;quot;100,000&amp;quot; Indian Rupees.  10. Set the SIP frequency to &amp;quot;Monthly.&amp;quot;   11. Pick the start date as &amp;quot;2021-08-02,&amp;quot; and choose the end date as &amp;quot;2023-08-17&amp;quot; from the calendar.  12. Click on the &amp;quot;Calculate&amp;quot; button to proceed with the calculations.  13. Retrieve and display the investment period (&amp;quot;August 02, 2021 to August 17, 2023&amp;quot;) from the first row, second data in the terminal.</t>
+  </si>
+  <si>
+    <t>Apply the appropriate TestNG annotation for the cases and generate the TestNG reports. (i.e., @BeforeTest, @AfterTest, @BeforeMethod, @AfterMethod, etc.,) https://economictimes.indiatimes.com/et-now/results 1. Open your web browser and visit the Economic Times website by going to https://economictimes.indiatimes.com/et-now/results/. 2. In the website&amp;#39;s header section, locate and click on &amp;quot;Mutual Funds.&amp;quot; and wait for 10 second to load the page. 3. Scroll down on the redirected page, on the right side you will find the &amp;quot;Mutual Fund Search by AMC&amp;quot; section. 4. Click on the &amp;quot;Select AMC Name&amp;quot; dropdown and choose &amp;quot;Canara Robeco.&amp;quot; 5. Below that, click on the &amp;quot;Select scheme name&amp;quot; dropdown and select &amp;quot;Canara Robeco Bluechip Equity Direct-G.&amp;quot; 6. Click the &amp;quot;Get Details&amp;quot; button. 7. This action will open a new tab with information about the Canara Robeco Bluechip Equity Fund Direct-Growth. 8. Scroll down, select the dropdowns for investment growth, select the type dropdown and choose &amp;quot;SIP&amp;quot; and choose the amount as &amp;quot;1,000,&amp;quot; and the period as &amp;quot;3 years.&amp;quot; 9. If you click on the &amp;quot;Returns&amp;quot; option, you will be directed to the “Canara Robeco Bluechip Equity Fund Direct-Growth “Returns section. 10. In the &amp;quot;Trailing Returns&amp;quot; section capture the screenshot, retrieve and display the details from the first table row, which provides information about annualized returns, in the terminal</t>
+  </si>
+  <si>
+    <t>Apply the appropriate TestNG annotation for the cases and generate the TestNG reports. (i.e., @BeforeTest, @AfterTest, @BeforeMethod, @AfterMethod, etc.,) 1. Open your web browser and visit the Groww website by going to https://groww.in/. 2. In the website&amp;#39;s footer section, locate and click on &amp;quot;Quick Links.&amp;quot;  3. From the quick links, select &amp;quot;Calculators.&amp;quot;  4. You&amp;#39;ll be directed to the calculator page.  5. Scroll down on the calculator page and choose the &amp;quot;home loan EMI&amp;quot; calculator.  6. You&amp;#39;ll be taken to the home loan calculator page. Enter a new loan amount of &amp;quot;23,00,000&amp;quot; in the loan amount input field.  7. Input the value from default interest rate from 6.5% to 8%.  8. Input the loan tenure to 25 years.  9. Retrieve and display the values from the results table on the terminal with the following labels:   Monthly EMI:   Principal Amount:   Total Interest:   Total Amount:</t>
+  </si>
+  <si>
+    <t>Apply the appropriate TestNG annotation for the cases and generate the TestNG reports. (i.e., @BeforeTest, @AfterTest, @BeforeMethod, @AfterMethod, etc.,) Navigate to https://www.ixigo.com  1. Click on the &amp;quot;Round Trip&amp;quot;. 2. Locate the input field labelled as “FROM”.   3. Input the city (for example, &amp;quot; IDP - Independence &amp;quot;) into the input field.  4. Locate the input field labelled as “TO”.    5. Input the city (for example, &amp;quot; DEL - New Delhi &amp;quot;) into the input field.  6. Identify the input field labelled as &amp;quot;Departure.&amp;quot;  7. Utilize the date picker to select an appropriate departure-date   8. Locate the input field labelled as &amp;quot;Return.&amp;quot;   9. Use the date picker to choose a suitable return-date.  10. Click on the &amp;quot;Travellers and class&amp;quot; section. Within this section, increase the value by 1 for Adults and also increase the value by 1 for Child from the default value. Then under the class section choose “Business” option.  11. Once selections are made, click the &amp;quot;Search” button.</t>
+  </si>
+  <si>
+    <t>Write the test script for the following testcases: Testcase 1: 1. Open a web browser and navigate to the URL: http://dbankdemo.com/bank/login 2. Click on the username and enter the value &amp;quot;S@gmail.com&amp;quot; from the feature file using the scenario outline. 3. Click on the password and enter the value &amp;quot;P@ssword12&amp;quot; from the feature file using the scenario outline. 4. Click the &amp;quot;Sign In&amp;quot; button. 5. Verify the result of a successful login by verifying the redirected URL contains the keyword &amp;quot;home&amp;quot; . Testcase 2: 1. Open a web browser and navigate to the URL: http://dbankdemo.com/bank/login 2. Click on the username and enter the value &amp;quot;S@gmail.com&amp;quot;. 3. Click on the password and enter the value &amp;quot;P@ssword12&amp;quot;. 4. Click the &amp;quot;Sign In&amp;quot; button. You will be redirected to a new page. 5. Click on the &amp;quot;Deposit&amp;quot; option. 6. Choose the &amp;quot;Individual Checking (Standard Checking)&amp;quot; by selecting the &amp;quot;Select account&amp;quot; dropdown, for the deposit. 7. Input the deposit amount, 5000 in the textbox. 8. Click the submit button to be redirected to the deposited amount page. 9. Scroll down on the page and verify the deposited amount is present in the below table</t>
+  </si>
+  <si>
+    <t>Write the test script for the following testcases Testcase1: 1. Go to the website: https://www.demoblaze.com/ 2. On the left-hand side, look for the section labeled &amp;quot;Categories.&amp;quot; Within this section, click on &amp;quot;Laptops.&amp;quot; 3. You will be directed to a results page. On this page, select &amp;quot;MacBook air.&amp;quot; and save the product name for future reference. 4. After selecting the product, you will be taken to a specific product page. Locate the &amp;quot;Add to cart&amp;quot; button below the product description and click on it. 5. An alert will pop up; click the &amp;quot;OK&amp;quot; button on the alert. 6. In the top navigation bar, find and click on the &amp;quot;Cart&amp;quot; option. This will take you to the shopping cart page. 7. On the shopping cart page, you will find details of the product you selected. Verify the selected product name and displayed product name match. Testcase2: 1. Go to the website: https://www.demoblaze.com/ 2. Click on the &amp;quot;Log in&amp;quot; option located on the top navigation bar.  3. When the login popup appears, click on the username input box and enter &amp;quot;Testalpha&amp;quot; (this value should be sourced from an Excel file). 4. Click on the password input box and enter &amp;quot;Test@123&amp;quot; (this value should also be sourced from an Excel file). 5. Click on the &amp;quot;Login&amp;quot; button, then confirm the login was successful by checking for the message &amp;quot;Welcome Testalpha&amp;quot; in the redirected page navbar.</t>
+  </si>
+  <si>
+    <t>Write the test script for the following test cases Testcase 1: 1. Open a web browser and navigate to the URL: https://www.firstcry.com/. 2. In the top navigation bar, click on the search bar. 3. In the search bar, input the search value &amp;quot;Toys&amp;quot; which should be taken from an Excel sheet, and then perform the &amp;quot;Enter&amp;quot; action. 4. Verify the redirected result page by confirming that the URL contains the keyword &amp;#39;kids-toys&amp;#39; . Test Case 2: 1. Open a web browser and navigate to the URL: https://www.firstcry.com/. 2. In the top navigation bar, click on the search bar. 3. In the search bar, input the search value &amp;quot;Clothes,&amp;quot; which should be taken from an Excel sheet, and then perform the ENTER action. 4. You will be redirected to the results page. On the left side, under the FILTER BY section, click on the &amp;quot;Ethnic Wear&amp;quot; checkbox. 5. The page will load with the applied filter. Verify that the &amp;quot;Ethnic Wear&amp;quot; filter is applied by confirming the presence of the label &amp;quot;Ethnic Wear&amp;quot; below the navigation bar.</t>
+  </si>
+  <si>
+    <t>Write the test script for the following testcases. Testcase 1: 1. Open a web browser. 2. Visit the URL &amp;quot;https://magento.softwaretestingboard.com/&amp;quot;. 3. Type the word &amp;quot;Shoe&amp;quot; into the search bar. 4. Click on the search icon. 5. Once the page transitions to the search results, confirm the presence of the text &amp;quot;Search results for: &amp;#39;Shoes&amp;#39;&amp;quot; and capture a screenshot. Testcase 2: 1. Start a web browser. 2. Go to the URL &amp;quot;https://magento.softwaretestingboard.com/&amp;quot;. 3. Using data from an Excel file, enter the search keyword &amp;quot;Hoodie&amp;quot; into the search box. 4. Click on the search icon. 5. Once you are on the results page, confirm the presence of the text &amp;quot;Hoodie&amp;quot; and capture a screenshot.</t>
+  </si>
+  <si>
+    <t>Write the test script for the following testcases. Testcase 1: 1. Click on the &amp;quot;Round Trip&amp;quot;. 2. Locate the input field labelled as “FROM”.   3. Input the city &amp;quot;IDP - Independence&amp;quot; from excel file and select &amp;quot;IDP - Independence&amp;quot; 4. Locate the input field labelled as “TO”.   5. Input the city &amp;quot;DEL - New Delhi&amp;quot; into the input field and select &amp;quot;DEL - New Delhi&amp;quot;  6. Identify the input field labelled as &amp;quot;Departure.&amp;quot; and select the departure date as &amp;quot;Nov-6-2023&amp;quot; 7. Locate the input field labelled as &amp;quot;Return.&amp;quot; and select the return date &amp;quot;Nov-8-2023&amp;quot; 8. Click on the &amp;quot;Travellers and Class&amp;quot; section. Within this section, increase the value by 2 for Adults and also increase the value by 2 for Child from the default value. Then under the class section choose the “Business” option. 9. Verify the return date contains &amp;quot;08 Nov&amp;quot; is displayed in the date picker. Testcase2: 1. Open the URL: https://www.ixigo.com/ 2. Click on &amp;quot;About Us&amp;quot; in the homepage footer section. 3. You will be redirected to a new tab, and verify the URL contains the keyword &amp;quot;about&amp;quot;</t>
+  </si>
+  <si>
+    <t>Write the test script for the following test case: TestCase: 1. Open your web browser and navigate to the Groww.in website. 2. In the website&amp;#39;s footer section, under the Quick Links click on &amp;quot;Calculators&amp;quot;. 3. You&amp;#39;ll be directed to the calculator page.  4. Verify the label &amp;quot;Calculators&amp;quot; is present at the top of the page and capture a screenshot. 5. Scroll down and click on the &amp;quot;Home Loan EMI&amp;quot; 6. You will be redirected to the &amp;quot;Home Loan EMI Calculator page&amp;quot;. 7. Clear the existing loan amount and enter a new loan amount of &amp;quot;2300000&amp;quot; into the loan amount input field, which should be taken from Excel. 8. Clear the existing rate of interest and enter the new value &amp;quot;8&amp;quot; in the rate of interest field. 9. Update the loan tenure field to &amp;quot;25&amp;quot; years. 10. Verify the keyword &amp;quot;Your Amortization Details (Yearly/Monthly)&amp;quot; is present on the calculator page.</t>
+  </si>
+  <si>
+    <t>Write the test script for the following testcase: TestCase: 1. Open your web browser and navigate to the OpenTable website. 2. Read data from the Excel sheet, city (e.g., &amp;quot;Bangalore&amp;quot;) into the search box 3. Click the “Let’s Go” button, and you will be redirected to the list of available hotels in Bangalore. 4. Scroll down the page on the left side of the page, under the “Cuisine” filter section, click on the “Asian” checkbox, and the page will be loaded with the selected filter. 5. Click on the first result, “Far &amp;amp; East - Four Seasons Hotel Bengaluru.&amp;quot; 6. A new tab will open, displaying the details of the clicked hotel and capture a screenshot. 7. Scroll down on the hotel details page and find the &amp;quot;Make a Reservation&amp;quot; section. 8. Within the &amp;quot;Make a Reservation&amp;quot; section, click on the party size dropdown and choose &amp;quot;4 people.&amp;quot; 9. In the date dropdown, select a future date in the November month: “Nov 11, 2023”. 10. Click on the time dropdown select the time “06:30 PM” and click the “Find a time” button. 11. Finally, click the above &amp;quot;Sign In&amp;quot; button.</t>
+  </si>
+  <si>
+    <t>Write the test script for the following testcases: Test Case 1:  1. Open the browser and navigate to the URL https://www.abhibus.com/. 2. In the top navigation bar, click on &amp;quot;Trains.&amp;quot; 3. Assert the redirected page by verifying that the URL contains the keyword &amp;quot;trains.&amp;quot; 4. Go back to the home page by clicking on the Abhibus header text on the top-left side of the page. 5. On the homepage top-right side of the navigation bar, click on &amp;quot;Login/Signup.&amp;quot; 6. Verify the popup by confirming that the keyword &amp;quot;Login to Abhibus&amp;quot; is present inside and capture a screenshot. Test Case 2: 1. Open the browser and navigate to the URL https://www.abhibus.com/. 2. Inside the bus page, click on the &amp;quot;From station&amp;quot; input box and input the search value &amp;quot;Mumbai&amp;quot; (should be taken from Excel). 3. Click on the &amp;quot;To station&amp;quot; input box and input the search value &amp;quot;Pune&amp;quot; (should be taken from Excel). 4. Click on the search button; you will be redirected to the bus selection page. 5. Verify the redirected page by confirming that the keywords &amp;quot;Mumbai&amp;quot; and &amp;quot;Pune&amp;quot; are found inside the redirected URL.</t>
+  </si>
+  <si>
+    <t>Implement the Log4j with 7 levels of logs. Use: https://www.moneycontrol.com   Test Steps:  1. Open your web browser and go to the Money control website.  2. On the top of the homepage, locate and click on the search box.  3. In the search-box , enter the data as &amp;quot;Reliance Industries.&amp;quot;   4. Click on the primary suggestion in the displayed list, which will lead you to the chosen option . 5. Scroll down further and verify that the page contains the specific term &amp;quot;Reliance Industries Ltd.&amp;quot; 6. At the top navigation bar of the same page, click on the &amp;quot;Mutual Funds&amp;quot; dropdown and select the &amp;quot;SIP Return&amp;quot; option. 7. This action will redirect you to the SIP Calculator page. Here, choose the mutual fund named &amp;quot;Axis Mutual Fund&amp;quot; within the SIP calculator.  8. Choose for the mutual fund scheme as &amp;quot;Axis Arbitrage Fund - Regular Plan (D).&amp;quot;   9. Enter the investment amount as &amp;quot;100,000&amp;quot; Indian Rupees.  10. Set the SIP frequency to &amp;quot;Monthly.&amp;quot;   11. Pick the start date as &amp;quot;2021-08-02,&amp;quot; and choose the end date as &amp;quot;2023-08-17&amp;quot; from the calendar.  12. Click on the &amp;quot;Calculate&amp;quot; button to proceed with the calculations.  13. Retrieve and display the investment period (&amp;quot;August 02, 2021 to August 17, 2023&amp;quot;) from the first row, second data in the terminal.  14. Similarly, output the result of the &amp;quot;total amount invested&amp;quot; from the third row, second data in the terminal.</t>
+  </si>
+  <si>
+    <t>Implement the Log4j with different levels log. Testcase1: 1. Open your web browser and navigate to the OpenTable website. 2. Read data from the Excel sheet, city (e.g., &amp;quot;Bangalore&amp;quot;) into the search box 3. Click the “Let’s Go” button, and you will be redirected to the list of available hotels in Bangalore. 4. Scroll down the page on the left side of the page, under the “Cuisine” filter section, click on the “Asian” checkbox, and the page will be loaded with the selected filter.  5. Click on the first result, “Far &amp;amp; East - Four Seasons Hotel Bengaluru.&amp;quot; 6. A new tab will open, displaying the details of the clicked hotel and capture a screenshot. 7. Scroll down on the hotel details page and find the &amp;quot;Make a Reservation&amp;quot; section. 8. Within the &amp;quot;Make a Reservation&amp;quot; section, click on the party size dropdown and choose &amp;quot;4 people.&amp;quot; 9. In the date dropdown, select a future date in the November month: “Nov 11, 2023”. 10. Click on the time dropdown select the time “06:30 PM” and click the “Find a time” button. 11. Finally, click the above &amp;quot;Sign In&amp;quot; button.</t>
+  </si>
+  <si>
+    <t>Write the test script for the following testcases: Test Case 1: 1. Launch your web browser and navigate to the URL: https://www.puriholidayresort.com/home.php 2. Close the pop-up message by getting the xpath of the &amp;quot;X&amp;quot; option and clicking on it. Then you can find the resort&amp;#39;s homepage. 3. On the homepage, you&amp;#39;ll see two options &amp;quot;IN&amp;quot; and &amp;quot;OUT&amp;quot;. Click on the check-in date field and select the date &amp;quot;20-01-2024&amp;quot; from the date picker. 4. Click on the check-out date and select &amp;quot;22-01-2024&amp;quot; from the date picker. 5. Click the &amp;quot;Book Now&amp;quot; button, which will take you to the booking page. 6. On the booking page, verify the &amp;quot;Property Information&amp;quot; label is present. Test Case 2: 1. Launch your web browser and navigate to the URL: https://www.puriholidayresort.com/home.php 2. If you encounter a pop-up message, click the &amp;quot;X&amp;quot; icon to close it. Then you can find the resort&amp;#39;s homepage. 3. hover your mouse over the &amp;quot;Rooms &amp;amp; Suites&amp;quot; option on the navigation bar. A submenu will appear, select &amp;quot;Royal Suite.&amp;quot; 4. It will redirect you to the “Room &amp;amp; Suites” page, below the page to locate the &amp;quot;Amenities&amp;quot; section and click on it. 5. Inside the Amenities section, verify whether the label &amp;quot;Price&amp;quot; is available on the page</t>
+  </si>
+  <si>
+    <t>Implement the Log4j with different levels logs. Use: https://economictimes.indiatimes.com/et-now/results 1. Open your web browser and visit the Economic Times website by going to https://economictimes.indiatimes.com/et-now/results/. 2. In the website&amp;#39;s header section, locate and click on &amp;quot;Mutual Funds.&amp;quot; and wait for 10 second to load the page. 3. Scroll down on the redirected page, on the right side you will find the &amp;quot;Mutual Fund Search by AMC&amp;quot; section. 4. Click on the &amp;quot;Select AMC Name&amp;quot; dropdown and choose &amp;quot;Canara Robeco.&amp;quot; 5. Below that, click on the &amp;quot;Select scheme name&amp;quot; dropdown and select &amp;quot;Canara Robeco Bluechip Equity Direct-G.&amp;quot; 6. Click the &amp;quot;Get Details&amp;quot; button. 7. This action will open a new tab with information about the Canara Robeco Bluechip Equity Fund Direct-Growth. 8. Scroll down, select the dropdowns for investment growth, select the type dropdown and choose &amp;quot;SIP&amp;quot; and choose the amount as &amp;quot;1,000,&amp;quot; and the period as &amp;quot;3 years.&amp;quot; 9. If you click on the &amp;quot;Returns&amp;quot; option, you will be directed to the “Canara Robeco Bluechip Equity Fund Direct-Growth “Returns section.  10. In the &amp;quot;Trailing Returns&amp;quot; section capture the screenshot, retrieve and display the details from the first table row, which provides information about annualized returns, in the terminal.</t>
+  </si>
+  <si>
+    <t>Write the test script for the following testcase: Testcase: 1. Open the URL: https://www.mayoclinic.org/  2. Click on the &amp;quot;Care at Mayo Clinic&amp;quot; dropdown. 3. Select the &amp;quot;Find a doctor&amp;quot; option. 4. Enter &amp;quot;Heart&amp;quot; in the search bar, which should be taken from excel file. 5. Click on the location dropdown and select “Rochester MN&amp;quot;. 6. Click on the &amp;quot;Search&amp;quot; button. 7. Verify that a list of cardiologists in Minneapolis, MN is displayed. 8. Capture a screenshot of the results page. 9. Click on the profile of the first cardiologist. 10. Scroll down and click on “Send a secure message via patient portal”. 11. Verify the page redirects to the “PATIENT ONLINE SERVICES” by confirming the label and capture a screenshot of the login page.</t>
+  </si>
+  <si>
+    <t>Write the test script for the following testcase: Testcase: 1. Open the URL: https://www.mayoclinic.org/ 2. Click on the &amp;quot;Giving to Mayo Clinic&amp;quot; dropdown and click “Give Now”. 3. You will be redirected to the “Gift Details” section. Click on “$250” 4. Select the Designate my gift to dropdown and select “Medical Education”. 5. Under the “Gift Options” section and select the checkbox “I would like to donate anonymously”. 6. Scroll down,u nder the Billing information click on the Title dropdown and select “Mr” 7. Click on the first name and input the value as “Tester” from the Excel file. 8. Click on the Last name and input the value as “TesterLast”. 9. Click on the country dropdown and select “India”. 10. Select the state/territory and select “NA”. 11. Click on address and select update dummy address. 12. Click on “Make my Gift”. 13. Verify the centre pop-up contains the keyword “Complete payment” is displayed. Capture a screenshot.</t>
+  </si>
+  <si>
+    <t>Explain the integration of TestNG with a hybrid framework and provide an example.</t>
+  </si>
+  <si>
+    <t>Describe the key components of a hybrid framework and provide an example implementing hybrid framework in POM.</t>
+  </si>
+  <si>
+    <t>S.NO</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Additional Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Describe the role of TestNG in software testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mention the purpose of testNG annotations in test case execution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discuss the role of Apache POI in data-driven testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List the benefits of using Apache POI for data-driven testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Infer the purpose of HTML report generation using Extent Reports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Describe the benefits of using Extent Reports for HTML report generation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Explore the importance of log4j property file configuration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Examine the parameters utilized to specify properties in a log4j properties file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discuss the process of creating the POM within a hybrid framework folder structure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evaluate the challenges associated with implementing a hybrid framework in POM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Write two advantages of using TestNG over other testing frameworks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Explain how you prepare test data in TestNG for test case execution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Explain the significance of the Page Object Model (POM) in test automation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discuss the advantages of implementing the Page Object Model (POM) in test automination frameworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mention the significance of attaching screenshots in HTML reports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How can you capture screenshots in Extent Reports for failed tests?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evaluate the significance of log levels in log4j for efficient logging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Analyze how log4j facilitates logging messages at varying levels of severity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Explore the rationale behind implementing a hybrid framework.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Examine the advantages of incorporating a hybrid framework approach into POM.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,24 +542,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -85,7 +869,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +881,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -111,7 +895,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +930,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -320,23 +1104,513 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="126.545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="E8 B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="113.454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/assets/sheets/questions.xlsx
+++ b/assets/sheets/questions.xlsx
@@ -7,8 +7,7 @@
     <workbookView windowWidth="19200" windowHeight="6920"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CIA-2 software testing" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>S.No</t>
   </si>
@@ -100,15 +99,6 @@
   </si>
   <si>
     <t>Describe the key components of a hybrid framework and provide an example implementing hybrid framework in POM.</t>
-  </si>
-  <si>
-    <t>S.NO</t>
-  </si>
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>Additional Info</t>
   </si>
   <si>
     <t xml:space="preserve"> Describe the role of TestNG in software testing.</t>
@@ -1110,10 +1100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
@@ -1355,262 +1345,228 @@
         <v>16</v>
       </c>
     </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="E8 B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="113.454545454545" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>